--- a/contents.xlsx
+++ b/contents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\PycharmProjects\JLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CD9E41-1876-48E3-B107-25778473BD48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC86EE90-7B88-4B20-B3C6-36D8604534A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="3540" windowWidth="16920" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="content" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="221">
   <si>
     <t>No.</t>
   </si>
@@ -480,166 +480,214 @@
     <t>No.150</t>
   </si>
   <si>
-    <t>哀　あわれ：哀れ／憐れむ；アイ：哀歓（あいかん）</t>
-  </si>
-  <si>
-    <t>愛　アイ</t>
-  </si>
-  <si>
-    <t>挨　アイ：挨拶（あいさつ）</t>
-  </si>
-  <si>
-    <t>曖　アイ：曖昧（あいまい）</t>
-  </si>
-  <si>
-    <t>安　やすい：安い；アン：安心（あんしん）</t>
-  </si>
-  <si>
-    <t>俺　おれ</t>
-  </si>
-  <si>
-    <t>岸　きし；ガン：海岸（かいがん）</t>
-  </si>
-  <si>
-    <t>案　アン：案件（あんけん）</t>
-  </si>
-  <si>
-    <t>暗　くらい：暗い；アン：暗号（あんごう）</t>
-  </si>
-  <si>
-    <t>闇　やみ：闇市（やみいち）；アン</t>
-  </si>
-  <si>
-    <t>奥　おく：奥義（おくぎ）；オウ：深奥（しんおう）</t>
-  </si>
-  <si>
-    <t>凹　オウ：凹凸（おうとつ）</t>
-  </si>
-  <si>
-    <t>傲　おごる：傲る；傲慢（ごうまん）</t>
-  </si>
-  <si>
-    <t>八　や：八百屋（やおや）；やっつ；よう：八日（ようか）；ハチ：八月（はちがつ）</t>
-  </si>
-  <si>
-    <t>抜　ぬ：抜かす、抜く、抜ける；バツ：海抜（かいばつ）</t>
-  </si>
-  <si>
-    <t>把　ハ：把握（はあく）</t>
-  </si>
-  <si>
-    <t>罷　ヒ：罷免（ひめん）</t>
-  </si>
-  <si>
-    <t>覇　ハ：覇王（はおう）</t>
-  </si>
-  <si>
-    <t>百　ヒャク</t>
-  </si>
-  <si>
-    <t>白　しら：白露（しらつゆ）；しろ：白い；ハク：白米（はくまい）</t>
-  </si>
-  <si>
-    <t>唄　うた：唄う；バイ／ハイ</t>
-  </si>
-  <si>
-    <t>拝　おがむ：拝む；ハイ：拝見（はいけん）</t>
-  </si>
-  <si>
-    <t>班　ハン：班長（はんちょう）</t>
-  </si>
-  <si>
-    <t>般　ハン：般若（はんにゃ）／諸般（しょはん）</t>
-  </si>
-  <si>
-    <t>斑　まだら；ハン：斑点（はんてん）</t>
-  </si>
-  <si>
-    <t>敗　やぶれる：敗れる；ハイ：敗因</t>
-  </si>
-  <si>
-    <t>搬　ハン：搬送（はんそう）</t>
-  </si>
-  <si>
-    <t>頒　ハン：頒布（はんぶ）</t>
-  </si>
-  <si>
-    <t>坂　さか：坂道（さかみち）；ハン：急坂（きゅうはん）</t>
-  </si>
-  <si>
-    <t>板　いた：板前（いたまえ）；ハン／バン：黒板（こくばん）</t>
-  </si>
-  <si>
-    <t>阪　さか：大阪；ハン</t>
-  </si>
-  <si>
-    <t>版　ハン：版図（はんと）</t>
-  </si>
-  <si>
-    <t>半　なかば：半ば；ハン：半価（はんか）</t>
-  </si>
-  <si>
-    <t>弁　ベン：弁当（办辩辫辨的简写）</t>
-  </si>
-  <si>
     <t>伴：とも／ともなう：伴う；ハン／バン：伴奏（ばんそう）</t>
   </si>
   <si>
-    <t>邦　くに；ホウ：邦人、友邦（ゆうほう）</t>
-  </si>
-  <si>
-    <t>棒　ボウ：棒グラフ、棒引き（ぼうびき）</t>
-  </si>
-  <si>
-    <t>傍　かたわら：傍ら；ボウ：傍系（ぼうけい）</t>
-  </si>
-  <si>
-    <t>包　つつむ：包む；オウ：包丁（ほうちょう）</t>
-  </si>
-  <si>
-    <t>胞　ホウ：細胞、同胞（どうほう）</t>
-  </si>
-  <si>
-    <t>剥　はがす：剥がす；む：剥く；ハク：剥離（はくり）</t>
-  </si>
-  <si>
-    <t>褒　ほめる：褒める；ホウ：褒賞（ほうしょう）</t>
-  </si>
-  <si>
-    <t>薄　うすい：薄い、薄める、薄らぐ、薄れる；ハク：薄氷：はくひょう</t>
-  </si>
-  <si>
-    <t>宝　たから；ホウ：財宝（ざいほう）</t>
-  </si>
-  <si>
-    <t>保　たもつ：保つ；ホ：保安（ほあん）</t>
-  </si>
-  <si>
-    <t>飽　あきる：飽きる；ホウ：飽和（ほうわ）</t>
-  </si>
-  <si>
-    <t>抱　いだく／だく：抱く；ホウ：抱負（ほうふ）</t>
-  </si>
-  <si>
-    <t>報　むくいる：報いる；ホウ：報告（ほうこく）</t>
-  </si>
-  <si>
-    <t>暴　あげく／あげれる；ボウ：暴君（ぼうくん）</t>
-  </si>
-  <si>
-    <t>爆　バク：爆笑（ばくしょう）</t>
-  </si>
-  <si>
-    <t>杯　さかずき；ハイ：杯盤（はいばん）</t>
-  </si>
-  <si>
-    <t>卑　いやしい：卑しい；ヒ：卑怯（ひきょう）</t>
-  </si>
-  <si>
-    <t>悲　かなしい：悲しい；ヒ：悲哀（ひあい）</t>
-  </si>
-  <si>
-    <t>碑　ヒ：碑石（ひせき）、碑文（ひぶん）</t>
+    <t>na</t>
+  </si>
+  <si>
+    <t>哀-あわれ：哀れ／憐れむ；アイ：哀歓（あいかん）</t>
+  </si>
+  <si>
+    <t>愛-アイ</t>
+  </si>
+  <si>
+    <t>挨-アイ：挨拶（あいさつ）</t>
+  </si>
+  <si>
+    <t>曖-アイ：曖昧（あいまい）</t>
+  </si>
+  <si>
+    <t>安-やすい：安い；アン：安心（あんしん）</t>
+  </si>
+  <si>
+    <t>俺-おれ</t>
+  </si>
+  <si>
+    <t>八-や：八百屋（やおや）；やっつ；よう：八日（ようか）；ハチ：八月（はちがつ）</t>
+  </si>
+  <si>
+    <t>坂-さか：坂道（さかみち）；ハン：急坂（きゅうはん）</t>
+  </si>
+  <si>
+    <t>薄-うすい：薄い、薄める、薄らぐ、薄れる；ハク：薄氷：はくひょう</t>
+  </si>
+  <si>
+    <t>背-せ：背；そむく：背く；そむける：背ける；ハイ：背反（はいはん）</t>
+  </si>
+  <si>
+    <t>抜-ぬ：抜かす、抜く、抜ける；バツ：海抜（かいばつ）</t>
+  </si>
+  <si>
+    <t>板-いた：板前（いたまえ）；ハン／バン：黒板（こくばん）</t>
+  </si>
+  <si>
+    <t>褒-ほめる：褒める；ホウ：褒賞（ほうしょう）</t>
+  </si>
+  <si>
+    <t>北-きた：北向き（きたむき）；ホク：北部（ほくぶ）</t>
+  </si>
+  <si>
+    <t>把-ハ：把握（はあく）</t>
+  </si>
+  <si>
+    <t>阪-さか：大阪；ハン</t>
+  </si>
+  <si>
+    <t>宝-たから；ホウ：財宝（ざいほう）</t>
+  </si>
+  <si>
+    <t>貝-カイ：貝類（かいるい）</t>
+  </si>
+  <si>
+    <t>罷-ヒ：罷免（ひめん）</t>
+  </si>
+  <si>
+    <t>版-ハン：版図（はんと）</t>
+  </si>
+  <si>
+    <t>保-たもつ：保つ；ホ：保安（ほあん）</t>
+  </si>
+  <si>
+    <t>倍-バイ：倍数（ばいすう）</t>
+  </si>
+  <si>
+    <t>覇-ハ：覇王（はおう）</t>
+  </si>
+  <si>
+    <t>半-なかば：半ば；ハン：半価（はんか）</t>
+  </si>
+  <si>
+    <t>飽-あきる：飽きる；ホウ：飽和（ほうわ）</t>
+  </si>
+  <si>
+    <t>被-こうむる：被る；ヒ：被害（ひがい）</t>
+  </si>
+  <si>
+    <t>百-ヒャク</t>
+  </si>
+  <si>
+    <t>弁-ベン：弁当（办辩辫辨的简写）</t>
+  </si>
+  <si>
+    <t>抱-いだく／だく：抱く；ホウ：抱負（ほうふ）</t>
+  </si>
+  <si>
+    <t>輩-ともがら；ハイ：後輩（こうはい）</t>
+  </si>
+  <si>
+    <t>岸-きし；ガン：海岸（かいがん）</t>
+  </si>
+  <si>
+    <t>唄-うた：唄う；バイ／ハイ</t>
+  </si>
+  <si>
+    <t>報-むくいる：報いる；ホウ：報告（ほうこく）</t>
+  </si>
+  <si>
+    <t>奔-ホン：奔騰（ほんとう）</t>
+  </si>
+  <si>
+    <t>案-アン：案件（あんけん）</t>
+  </si>
+  <si>
+    <t>拝-おがむ：拝む；ハイ：拝見（はいけん）</t>
+  </si>
+  <si>
+    <t>邦-くに；ホウ：邦人、友邦（ゆうほう）</t>
+  </si>
+  <si>
+    <t>爆-バク：爆笑（ばくしょう）</t>
+  </si>
+  <si>
+    <t>本-もと（根源）；ホン：本家（ほんけ）</t>
+  </si>
+  <si>
+    <t>暗-くらい：暗い；アン：暗号（あんごう）</t>
+  </si>
+  <si>
+    <t>白-しら：白露（しらつゆ）；しろ：白い；ハク：白米（はくまい）</t>
+  </si>
+  <si>
+    <t>棒-ボウ：棒グラフ、棒引き（ぼうびき）</t>
+  </si>
+  <si>
+    <t>暴-あげく／あげれる；ボウ：暴君（ぼうくん）</t>
+  </si>
+  <si>
+    <t>備-そなえる：備える；そなわる：備わる；ビ：備品（びひん）</t>
+  </si>
+  <si>
+    <t>闇-やみ：闇市（やみいち）；アン</t>
+  </si>
+  <si>
+    <t>敗-やぶれる：敗れる；ハイ：敗因</t>
+  </si>
+  <si>
+    <t>傍-かたわら：傍ら；ボウ：傍系（ぼうけい）</t>
+  </si>
+  <si>
+    <t>杯-さかずき；ハイ：杯盤（はいばん）</t>
+  </si>
+  <si>
+    <t>崩-くずす：崩す；くずれる：崩れる；ホウ：崩壊（ほうかい）</t>
+  </si>
+  <si>
+    <t>奥-おく：奥義（おくぎ）；オウ：深奥（しんおう）</t>
+  </si>
+  <si>
+    <t>般-ハン：般若（はんにゃ）／諸般（しょはん）</t>
+  </si>
+  <si>
+    <t>包-つつむ：包む；オウ：包丁（ほうちょう）</t>
+  </si>
+  <si>
+    <t>卑-いやしい：卑しい；ヒ：卑怯（ひきょう）</t>
+  </si>
+  <si>
+    <t>鼻-はな：鼻糞（はなくそ）；ビ：鼻祖（びそ）</t>
+  </si>
+  <si>
+    <t>凹-オウ：凹凸（おうとつ）</t>
+  </si>
+  <si>
+    <t>班-ハン：班長（はんちょう）</t>
+  </si>
+  <si>
+    <t>胞-ホウ：細胞、同胞（どうほう）</t>
+  </si>
+  <si>
+    <t>悲-かなしい：悲しい；ヒ：悲哀（ひあい）</t>
+  </si>
+  <si>
+    <t>比-くらべる：比べる；ヒ：比較（ひかく）</t>
+  </si>
+  <si>
+    <t>傲-おごる：傲る；傲慢（ごうまん）</t>
+  </si>
+  <si>
+    <t>斑-まだら；ハン：斑点（はんてん）</t>
+  </si>
+  <si>
+    <t>剥-はがす：剥がす；む：剥く；ハク：剥離（はくり）</t>
+  </si>
+  <si>
+    <t>碑-ヒ：碑石（ひせき）、碑文（ひぶん）</t>
+  </si>
+  <si>
+    <t>彼-かれ：彼；かの：彼女；ヒ：彼岸（ひがん）</t>
+  </si>
+  <si>
+    <t>搬-ハン：搬送（はんそう）</t>
+  </si>
+  <si>
+    <t>筆-ふで：筆箱（ふでばこ）；ヒツ：筆名（ひつめい）</t>
+  </si>
+  <si>
+    <t>頒-ハン：頒布（はんぶ）</t>
+  </si>
+  <si>
+    <t>必-かならず：必ず；ヒツ：必需（ひつじゅ）</t>
   </si>
 </sst>
 </file>
@@ -681,9 +729,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -966,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P151"/>
+  <dimension ref="A1:P152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -984,12 +1035,11 @@
     <col min="8" max="8" width="55.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="63.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="49.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="41.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="51.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="51.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="43.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -1048,43 +1098,49 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>163</v>
+      <c r="P2" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -1092,49 +1148,49 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
@@ -1142,43 +1198,49 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>191</v>
+        <v>214</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -1186,49 +1248,100 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>204</v>
+        <v>215</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -1955,8 +2068,14 @@
         <v>150</v>
       </c>
     </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>